--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2876.476940536035</v>
+        <v>3160.208406730871</v>
       </c>
       <c r="AB2" t="n">
-        <v>3935.722651248006</v>
+        <v>4323.936560644662</v>
       </c>
       <c r="AC2" t="n">
-        <v>3560.102805234183</v>
+        <v>3911.26612397965</v>
       </c>
       <c r="AD2" t="n">
-        <v>2876476.940536035</v>
+        <v>3160208.406730871</v>
       </c>
       <c r="AE2" t="n">
-        <v>3935722.651248006</v>
+        <v>4323936.560644662</v>
       </c>
       <c r="AF2" t="n">
         <v>2.789349077420836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.27083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3560102.805234183</v>
+        <v>3911266.12397965</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1002.514878180187</v>
+        <v>1149.342697235412</v>
       </c>
       <c r="AB3" t="n">
-        <v>1371.685084161114</v>
+        <v>1572.581383778684</v>
       </c>
       <c r="AC3" t="n">
-        <v>1240.773384900883</v>
+        <v>1422.49642364268</v>
       </c>
       <c r="AD3" t="n">
-        <v>1002514.878180187</v>
+        <v>1149342.697235412</v>
       </c>
       <c r="AE3" t="n">
-        <v>1371685.084161113</v>
+        <v>1572581.383778684</v>
       </c>
       <c r="AF3" t="n">
         <v>5.286390945648076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.69166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1240773.384900883</v>
+        <v>1422496.42364268</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>756.818181237213</v>
+        <v>883.9674725252564</v>
       </c>
       <c r="AB4" t="n">
-        <v>1035.512024030473</v>
+        <v>1209.483293801611</v>
       </c>
       <c r="AC4" t="n">
-        <v>936.6842098072572</v>
+        <v>1094.051905761649</v>
       </c>
       <c r="AD4" t="n">
-        <v>756818.1812372131</v>
+        <v>883967.4725252565</v>
       </c>
       <c r="AE4" t="n">
-        <v>1035512.024030473</v>
+        <v>1209483.293801611</v>
       </c>
       <c r="AF4" t="n">
         <v>6.212658249007675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.2625</v>
       </c>
       <c r="AH4" t="n">
-        <v>936684.2098072572</v>
+        <v>1094051.905761649</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>733.1097439441805</v>
+        <v>860.3263550399283</v>
       </c>
       <c r="AB5" t="n">
-        <v>1003.073094183711</v>
+        <v>1177.136473885691</v>
       </c>
       <c r="AC5" t="n">
-        <v>907.3412058967464</v>
+        <v>1064.792220939457</v>
       </c>
       <c r="AD5" t="n">
-        <v>733109.7439441805</v>
+        <v>860326.3550399283</v>
       </c>
       <c r="AE5" t="n">
-        <v>1003073.094183711</v>
+        <v>1177136.473885691</v>
       </c>
       <c r="AF5" t="n">
         <v>6.292892057716742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.94166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>907341.2058967464</v>
+        <v>1064792.220939457</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1769.054767336686</v>
+        <v>1991.639066951611</v>
       </c>
       <c r="AB2" t="n">
-        <v>2420.498777858236</v>
+        <v>2725.048436317634</v>
       </c>
       <c r="AC2" t="n">
-        <v>2189.489771690817</v>
+        <v>2464.973638184979</v>
       </c>
       <c r="AD2" t="n">
-        <v>1769054.767336686</v>
+        <v>1991639.066951611</v>
       </c>
       <c r="AE2" t="n">
-        <v>2420498.777858236</v>
+        <v>2725048.436317634</v>
       </c>
       <c r="AF2" t="n">
         <v>3.916777791777511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.84583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2189489.771690817</v>
+        <v>2464973.63818498</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.6582916922916</v>
+        <v>912.1518143750244</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.65813843901</v>
+        <v>1248.046353725871</v>
       </c>
       <c r="AC3" t="n">
-        <v>961.2395371564544</v>
+        <v>1128.934561370332</v>
       </c>
       <c r="AD3" t="n">
-        <v>776658.2916922916</v>
+        <v>912151.8143750244</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062658.13843901</v>
+        <v>1248046.353725871</v>
       </c>
       <c r="AF3" t="n">
         <v>6.39881881693632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>961239.5371564544</v>
+        <v>1128934.561370332</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.1548540878039</v>
+        <v>840.0019930392094</v>
       </c>
       <c r="AB4" t="n">
-        <v>977.1381776514941</v>
+        <v>1149.327785148738</v>
       </c>
       <c r="AC4" t="n">
-        <v>883.8814813984803</v>
+        <v>1039.637554425819</v>
       </c>
       <c r="AD4" t="n">
-        <v>714154.8540878039</v>
+        <v>840001.9930392094</v>
       </c>
       <c r="AE4" t="n">
-        <v>977138.177651494</v>
+        <v>1149327.785148738</v>
       </c>
       <c r="AF4" t="n">
         <v>6.713298608068199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.57916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>883881.4813984804</v>
+        <v>1039637.554425819</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.0039903341259</v>
+        <v>872.2688966223196</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.560153312028</v>
+        <v>1193.476786146469</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.9726579784311</v>
+        <v>1079.573036731839</v>
       </c>
       <c r="AD2" t="n">
-        <v>732003.9903341259</v>
+        <v>872268.8966223196</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001560.153312028</v>
+        <v>1193476.786146469</v>
       </c>
       <c r="AF2" t="n">
         <v>7.980986154990074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>905972.6579784311</v>
+        <v>1079573.036731839</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>735.5985252436782</v>
+        <v>875.8634315318715</v>
       </c>
       <c r="AB3" t="n">
-        <v>1006.478354554965</v>
+        <v>1198.394987389406</v>
       </c>
       <c r="AC3" t="n">
-        <v>910.4214729974814</v>
+        <v>1084.021851750889</v>
       </c>
       <c r="AD3" t="n">
-        <v>735598.5252436781</v>
+        <v>875863.4315318714</v>
       </c>
       <c r="AE3" t="n">
-        <v>1006478.354554965</v>
+        <v>1198394.987389406</v>
       </c>
       <c r="AF3" t="n">
         <v>7.979835576722218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>910421.4729974814</v>
+        <v>1084021.851750889</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.5187610362207</v>
+        <v>1030.138397865398</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.028126362127</v>
+        <v>1409.480802458098</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.308249039196</v>
+        <v>1274.961932890227</v>
       </c>
       <c r="AD2" t="n">
-        <v>878518.7610362207</v>
+        <v>1030138.397865398</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202028.126362127</v>
+        <v>1409480.802458098</v>
       </c>
       <c r="AF2" t="n">
         <v>6.617589876497584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.37083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087308.249039196</v>
+        <v>1274961.932890228</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.409194454507</v>
+        <v>837.1651762532114</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.8037361930583</v>
+        <v>1145.446327270612</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.8196603178318</v>
+        <v>1036.126537439921</v>
       </c>
       <c r="AD3" t="n">
-        <v>704409.194454507</v>
+        <v>837165.1762532113</v>
       </c>
       <c r="AE3" t="n">
-        <v>963803.7361930583</v>
+        <v>1145446.327270612</v>
       </c>
       <c r="AF3" t="n">
         <v>7.514349778454645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>871819.6603178318</v>
+        <v>1036126.537439921</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>779.9601423822173</v>
+        <v>937.1297914057442</v>
       </c>
       <c r="AB2" t="n">
-        <v>1067.175876220338</v>
+        <v>1282.222323849876</v>
       </c>
       <c r="AC2" t="n">
-        <v>965.3261083846176</v>
+        <v>1159.848824871978</v>
       </c>
       <c r="AD2" t="n">
-        <v>779960.1423822173</v>
+        <v>937129.7914057442</v>
       </c>
       <c r="AE2" t="n">
-        <v>1067175.876220338</v>
+        <v>1282222.323849876</v>
       </c>
       <c r="AF2" t="n">
         <v>8.256866753487914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>965326.1083846176</v>
+        <v>1159848.824871978</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1985.620271063247</v>
+        <v>2218.498909189826</v>
       </c>
       <c r="AB2" t="n">
-        <v>2716.813254252639</v>
+        <v>3035.448080818018</v>
       </c>
       <c r="AC2" t="n">
-        <v>2457.524410338118</v>
+        <v>2745.749176262771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1985620.271063247</v>
+        <v>2218498.909189826</v>
       </c>
       <c r="AE2" t="n">
-        <v>2716813.254252639</v>
+        <v>3035448.080818018</v>
       </c>
       <c r="AF2" t="n">
         <v>3.608587311230627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2457524.410338118</v>
+        <v>2745749.176262771</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.8032287778965</v>
+        <v>967.6267453349859</v>
       </c>
       <c r="AB3" t="n">
-        <v>1138.109874182458</v>
+        <v>1323.949601646516</v>
       </c>
       <c r="AC3" t="n">
-        <v>1029.490265137725</v>
+        <v>1197.593709840309</v>
       </c>
       <c r="AD3" t="n">
-        <v>831803.2287778965</v>
+        <v>967626.7453349859</v>
       </c>
       <c r="AE3" t="n">
-        <v>1138109.874182459</v>
+        <v>1323949.601646516</v>
       </c>
       <c r="AF3" t="n">
         <v>6.095825823563462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1029490.265137725</v>
+        <v>1197593.709840309</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>719.9255310104126</v>
+        <v>846.0401188686753</v>
       </c>
       <c r="AB4" t="n">
-        <v>985.0338724013053</v>
+        <v>1157.589415291925</v>
       </c>
       <c r="AC4" t="n">
-        <v>891.0236221230469</v>
+        <v>1047.110706183411</v>
       </c>
       <c r="AD4" t="n">
-        <v>719925.5310104126</v>
+        <v>846040.1188686753</v>
       </c>
       <c r="AE4" t="n">
-        <v>985033.8724013054</v>
+        <v>1157589.415291924</v>
       </c>
       <c r="AF4" t="n">
         <v>6.606224541569666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>891023.6221230469</v>
+        <v>1047110.706183411</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.789601818253</v>
+        <v>998.1336125468616</v>
       </c>
       <c r="AB2" t="n">
-        <v>1139.459473291982</v>
+        <v>1365.6904432338</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.711060402409</v>
+        <v>1235.350864090141</v>
       </c>
       <c r="AD2" t="n">
-        <v>832789.6018182531</v>
+        <v>998133.6125468616</v>
       </c>
       <c r="AE2" t="n">
-        <v>1139459.473291981</v>
+        <v>1365690.4432338</v>
       </c>
       <c r="AF2" t="n">
         <v>8.320767486145602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030711.060402409</v>
+        <v>1235350.864090141</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.566829756617</v>
+        <v>1443.645776418399</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.1313928735</v>
+        <v>1975.259840452354</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.391835378279</v>
+        <v>1786.743813574179</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261566.829756617</v>
+        <v>1443645.7764184</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726131.3928735</v>
+        <v>1975259.840452354</v>
       </c>
       <c r="AF2" t="n">
         <v>5.044150915646802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561391.835378279</v>
+        <v>1786743.813574179</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.588418926131</v>
+        <v>830.170868305136</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.4172031388462</v>
+        <v>1135.876406568966</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.2791402428287</v>
+        <v>1027.469956538573</v>
       </c>
       <c r="AD3" t="n">
-        <v>705588.418926131</v>
+        <v>830170.868305136</v>
       </c>
       <c r="AE3" t="n">
-        <v>965417.2031388462</v>
+        <v>1135876.406568966</v>
       </c>
       <c r="AF3" t="n">
         <v>7.087356959576946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.34583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>873279.1402428288</v>
+        <v>1027469.956538573</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.5557099535976</v>
+        <v>832.1381593326028</v>
       </c>
       <c r="AB4" t="n">
-        <v>968.108937513381</v>
+        <v>1138.568140943501</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.7139792665306</v>
+        <v>1029.904795562275</v>
       </c>
       <c r="AD4" t="n">
-        <v>707555.7099535975</v>
+        <v>832138.1593326028</v>
       </c>
       <c r="AE4" t="n">
-        <v>968108.937513381</v>
+        <v>1138568.140943501</v>
       </c>
       <c r="AF4" t="n">
         <v>7.092286827197748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.32916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>875713.9792665306</v>
+        <v>1029904.795562275</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1583.999620268869</v>
+        <v>1786.571034144413</v>
       </c>
       <c r="AB2" t="n">
-        <v>2167.298161583151</v>
+        <v>2444.46530686772</v>
       </c>
       <c r="AC2" t="n">
-        <v>1960.454266863728</v>
+        <v>2211.16896880887</v>
       </c>
       <c r="AD2" t="n">
-        <v>1583999.620268869</v>
+        <v>1786571.034144413</v>
       </c>
       <c r="AE2" t="n">
-        <v>2167298.161583151</v>
+        <v>2444465.30686772</v>
       </c>
       <c r="AF2" t="n">
         <v>4.253172290520258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1960454.266863728</v>
+        <v>2211168.96880887</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>739.5891423594295</v>
+        <v>864.9859981863142</v>
       </c>
       <c r="AB3" t="n">
-        <v>1011.938492946338</v>
+        <v>1183.512003207524</v>
       </c>
       <c r="AC3" t="n">
-        <v>915.3605034441338</v>
+        <v>1070.559278690926</v>
       </c>
       <c r="AD3" t="n">
-        <v>739589.1423594295</v>
+        <v>864985.9981863142</v>
       </c>
       <c r="AE3" t="n">
-        <v>1011938.492946338</v>
+        <v>1183512.003207524</v>
       </c>
       <c r="AF3" t="n">
         <v>6.688572417487148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>915360.5034441338</v>
+        <v>1070559.278690926</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>708.2037809532309</v>
+        <v>843.2507161836885</v>
       </c>
       <c r="AB4" t="n">
-        <v>968.9956568459539</v>
+        <v>1153.772831478564</v>
       </c>
       <c r="AC4" t="n">
-        <v>876.5160713505214</v>
+        <v>1043.658371772589</v>
       </c>
       <c r="AD4" t="n">
-        <v>708203.7809532309</v>
+        <v>843250.7161836885</v>
       </c>
       <c r="AE4" t="n">
-        <v>968995.6568459539</v>
+        <v>1153772.831478564</v>
       </c>
       <c r="AF4" t="n">
         <v>6.834095718455814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>876516.0713505214</v>
+        <v>1043658.371772589</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2530.348049893325</v>
+        <v>2793.910428847366</v>
       </c>
       <c r="AB2" t="n">
-        <v>3462.13383294168</v>
+        <v>3822.751507378148</v>
       </c>
       <c r="AC2" t="n">
-        <v>3131.712639060948</v>
+        <v>3457.913468779271</v>
       </c>
       <c r="AD2" t="n">
-        <v>2530348.049893325</v>
+        <v>2793910.428847366</v>
       </c>
       <c r="AE2" t="n">
-        <v>3462133.83294168</v>
+        <v>3822751.507378148</v>
       </c>
       <c r="AF2" t="n">
         <v>3.042633683874592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3131712.639060948</v>
+        <v>3457913.468779271</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.3041469598876</v>
+        <v>1087.712506192675</v>
       </c>
       <c r="AB3" t="n">
-        <v>1287.933861278625</v>
+        <v>1488.256237461875</v>
       </c>
       <c r="AC3" t="n">
-        <v>1165.01526118472</v>
+        <v>1346.219150939261</v>
       </c>
       <c r="AD3" t="n">
-        <v>941304.1469598876</v>
+        <v>1087712.506192675</v>
       </c>
       <c r="AE3" t="n">
-        <v>1287933.861278625</v>
+        <v>1488256.237461875</v>
       </c>
       <c r="AF3" t="n">
         <v>5.533809240515089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1165015.26118472</v>
+        <v>1346219.150939261</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>737.5350915722001</v>
+        <v>864.3504610437404</v>
       </c>
       <c r="AB4" t="n">
-        <v>1009.128050040926</v>
+        <v>1182.642433251134</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.8182852651327</v>
+        <v>1069.772699270725</v>
       </c>
       <c r="AD4" t="n">
-        <v>737535.0915722002</v>
+        <v>864350.4610437404</v>
       </c>
       <c r="AE4" t="n">
-        <v>1009128.050040926</v>
+        <v>1182642.433251134</v>
       </c>
       <c r="AF4" t="n">
         <v>6.371764093543746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>912818.2852651327</v>
+        <v>1069772.699270725</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>735.423782990891</v>
+        <v>852.5446483232217</v>
       </c>
       <c r="AB5" t="n">
-        <v>1006.239264495618</v>
+        <v>1166.489199451222</v>
       </c>
       <c r="AC5" t="n">
-        <v>910.2052013578328</v>
+        <v>1055.161107433471</v>
       </c>
       <c r="AD5" t="n">
-        <v>735423.782990891</v>
+        <v>852544.6483232217</v>
       </c>
       <c r="AE5" t="n">
-        <v>1006239.264495618</v>
+        <v>1166489.199451222</v>
       </c>
       <c r="AF5" t="n">
         <v>6.390992061717878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.07083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>910205.2013578329</v>
+        <v>1055161.10743347</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>994.1281747029457</v>
+        <v>1155.862303292964</v>
       </c>
       <c r="AB2" t="n">
-        <v>1360.210026468308</v>
+        <v>1581.501796411346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1230.393490608934</v>
+        <v>1430.565484613558</v>
       </c>
       <c r="AD2" t="n">
-        <v>994128.1747029456</v>
+        <v>1155862.303292964</v>
       </c>
       <c r="AE2" t="n">
-        <v>1360210.026468308</v>
+        <v>1581501.796411346</v>
       </c>
       <c r="AF2" t="n">
         <v>6.033855676142726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.10833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1230393.490608934</v>
+        <v>1430565.484613558</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.737157485494</v>
+        <v>839.9120601078936</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.9889579145351</v>
+        <v>1149.204734944551</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.7008889486976</v>
+        <v>1039.526247960418</v>
       </c>
       <c r="AD3" t="n">
-        <v>706737.1574854939</v>
+        <v>839912.0601078935</v>
       </c>
       <c r="AE3" t="n">
-        <v>966988.9579145352</v>
+        <v>1149204.734944551</v>
       </c>
       <c r="AF3" t="n">
         <v>7.366615788940818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.11666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>874700.8889486976</v>
+        <v>1039526.247960418</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.2130053968467</v>
+        <v>871.1255207000637</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.1096487081633</v>
+        <v>1191.912368767453</v>
       </c>
       <c r="AC2" t="n">
-        <v>903.7560260946545</v>
+        <v>1078.157925151802</v>
       </c>
       <c r="AD2" t="n">
-        <v>730213.0053968467</v>
+        <v>871125.5207000637</v>
       </c>
       <c r="AE2" t="n">
-        <v>999109.6487081633</v>
+        <v>1191912.368767453</v>
       </c>
       <c r="AF2" t="n">
         <v>7.740193787690204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>903756.0260946546</v>
+        <v>1078157.925151802</v>
       </c>
     </row>
     <row r="3">
@@ -7202,19 +7202,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.6127460440265</v>
+        <v>853.5925811549479</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.0281973929924</v>
+        <v>1167.923027383123</v>
       </c>
       <c r="AC3" t="n">
-        <v>881.9728746944745</v>
+        <v>1056.458092839941</v>
       </c>
       <c r="AD3" t="n">
-        <v>712612.7460440265</v>
+        <v>853592.5811549479</v>
       </c>
       <c r="AE3" t="n">
-        <v>975028.1973929924</v>
+        <v>1167923.027383123</v>
       </c>
       <c r="AF3" t="n">
         <v>7.831774360711682e-06</v>
@@ -7223,7 +7223,7 @@
         <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>881972.8746944745</v>
+        <v>1056458.092839941</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>747.8397307758846</v>
+        <v>896.6337242318361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1023.227312008004</v>
+        <v>1226.813818182141</v>
       </c>
       <c r="AC2" t="n">
-        <v>925.5719334585112</v>
+        <v>1109.728429218845</v>
       </c>
       <c r="AD2" t="n">
-        <v>747839.7307758846</v>
+        <v>896633.7242318362</v>
       </c>
       <c r="AE2" t="n">
-        <v>1023227.312008004</v>
+        <v>1226813.818182141</v>
       </c>
       <c r="AF2" t="n">
         <v>8.132409357577703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.36666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>925571.9334585113</v>
+        <v>1109728.429218845</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>930.5240738926466</v>
+        <v>1121.894613162129</v>
       </c>
       <c r="AB2" t="n">
-        <v>1273.184089724768</v>
+        <v>1535.025704225612</v>
       </c>
       <c r="AC2" t="n">
-        <v>1151.673187126528</v>
+        <v>1388.525005436426</v>
       </c>
       <c r="AD2" t="n">
-        <v>930524.0738926466</v>
+        <v>1121894.613162129</v>
       </c>
       <c r="AE2" t="n">
-        <v>1273184.089724767</v>
+        <v>1535025.704225612</v>
       </c>
       <c r="AF2" t="n">
         <v>8.204540772576732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1151673.187126528</v>
+        <v>1388525.005436426</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1411.723538740652</v>
+        <v>1604.03075735851</v>
       </c>
       <c r="AB2" t="n">
-        <v>1931.582426551927</v>
+        <v>2194.705647060596</v>
       </c>
       <c r="AC2" t="n">
-        <v>1747.234910754773</v>
+        <v>1985.246020393854</v>
       </c>
       <c r="AD2" t="n">
-        <v>1411723.538740651</v>
+        <v>1604030.75735851</v>
       </c>
       <c r="AE2" t="n">
-        <v>1931582.426551927</v>
+        <v>2194705.647060596</v>
       </c>
       <c r="AF2" t="n">
         <v>4.635050951081071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>1747234.910754773</v>
+        <v>1985246.020393854</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>715.7223636040305</v>
+        <v>840.7207012951496</v>
       </c>
       <c r="AB3" t="n">
-        <v>979.2829133252345</v>
+        <v>1150.311153491686</v>
       </c>
       <c r="AC3" t="n">
-        <v>885.8215265096746</v>
+        <v>1040.527071474283</v>
       </c>
       <c r="AD3" t="n">
-        <v>715722.3636040306</v>
+        <v>840720.7012951496</v>
       </c>
       <c r="AE3" t="n">
-        <v>979282.9133252345</v>
+        <v>1150311.153491686</v>
       </c>
       <c r="AF3" t="n">
         <v>6.921693485787638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.18333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>885821.5265096746</v>
+        <v>1040527.071474283</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.7510364169156</v>
+        <v>838.7493741080347</v>
       </c>
       <c r="AB4" t="n">
-        <v>976.5856564990063</v>
+        <v>1147.613896665458</v>
       </c>
       <c r="AC4" t="n">
-        <v>883.3816920893179</v>
+        <v>1038.087237053926</v>
       </c>
       <c r="AD4" t="n">
-        <v>713751.0364169156</v>
+        <v>838749.3741080347</v>
       </c>
       <c r="AE4" t="n">
-        <v>976585.6564990063</v>
+        <v>1147613.896665458</v>
       </c>
       <c r="AF4" t="n">
         <v>6.948226716644991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>883381.6920893178</v>
+        <v>1038087.237053926</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2240.847647890164</v>
+        <v>2484.154382487678</v>
       </c>
       <c r="AB2" t="n">
-        <v>3066.026611064588</v>
+        <v>3398.929619276493</v>
       </c>
       <c r="AC2" t="n">
-        <v>2773.409334499844</v>
+        <v>3074.540546840298</v>
       </c>
       <c r="AD2" t="n">
-        <v>2240847.647890164</v>
+        <v>2484154.382487678</v>
       </c>
       <c r="AE2" t="n">
-        <v>3066026.611064589</v>
+        <v>3398929.619276493</v>
       </c>
       <c r="AF2" t="n">
         <v>3.314099254760262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2773409.334499844</v>
+        <v>3074540.546840298</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.3604926722603</v>
+        <v>1027.601775965995</v>
       </c>
       <c r="AB3" t="n">
-        <v>1219.598750123772</v>
+        <v>1406.010084467475</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.201957129555</v>
+        <v>1271.822455353446</v>
       </c>
       <c r="AD3" t="n">
-        <v>891360.4926722603</v>
+        <v>1027601.775965995</v>
       </c>
       <c r="AE3" t="n">
-        <v>1219598.750123772</v>
+        <v>1406010.084467475</v>
       </c>
       <c r="AF3" t="n">
         <v>5.800852810840454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103201.957129555</v>
+        <v>1271822.455353446</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.3375976722244</v>
+        <v>854.8083867542183</v>
       </c>
       <c r="AB4" t="n">
-        <v>996.5436331221855</v>
+        <v>1169.586546241602</v>
       </c>
       <c r="AC4" t="n">
-        <v>901.4349074347768</v>
+        <v>1057.96284779333</v>
       </c>
       <c r="AD4" t="n">
-        <v>728337.5976722244</v>
+        <v>854808.3867542183</v>
       </c>
       <c r="AE4" t="n">
-        <v>996543.6331221855</v>
+        <v>1169586.546241602</v>
       </c>
       <c r="AF4" t="n">
         <v>6.483953439964426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.25833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>901434.9074347769</v>
+        <v>1057962.84779333</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.9187430524248</v>
+        <v>856.3895321344186</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.7070259865872</v>
+        <v>1171.749939106004</v>
       </c>
       <c r="AC5" t="n">
-        <v>903.3918291205408</v>
+        <v>1059.919769479095</v>
       </c>
       <c r="AD5" t="n">
-        <v>729918.7430524249</v>
+        <v>856389.5321344186</v>
       </c>
       <c r="AE5" t="n">
-        <v>998707.0259865872</v>
+        <v>1171749.939106004</v>
       </c>
       <c r="AF5" t="n">
         <v>6.487883823331078e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.24166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>903391.8291205409</v>
+        <v>1059919.769479095</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1133.296405844067</v>
+        <v>1377.029147665408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1550.626139984631</v>
+        <v>1884.11203007427</v>
       </c>
       <c r="AC2" t="n">
-        <v>1402.636557501953</v>
+        <v>1704.295022291823</v>
       </c>
       <c r="AD2" t="n">
-        <v>1133296.405844067</v>
+        <v>1377029.147665408</v>
       </c>
       <c r="AE2" t="n">
-        <v>1550626.139984631</v>
+        <v>1884112.03007427</v>
       </c>
       <c r="AF2" t="n">
         <v>7.688515169478061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>1402636.557501953</v>
+        <v>1704295.022291823</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>775.3252251859475</v>
+        <v>926.3466201166185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1060.834178034286</v>
+        <v>1267.468313172152</v>
       </c>
       <c r="AC2" t="n">
-        <v>959.5896529728132</v>
+        <v>1146.502916265951</v>
       </c>
       <c r="AD2" t="n">
-        <v>775325.2251859475</v>
+        <v>926346.6201166185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1060834.178034286</v>
+        <v>1267468.313172152</v>
       </c>
       <c r="AF2" t="n">
         <v>7.259936487540247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>959589.6529728131</v>
+        <v>1146502.916265951</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.5090174261131</v>
+        <v>844.6452076656121</v>
       </c>
       <c r="AB3" t="n">
-        <v>974.8862713217796</v>
+        <v>1155.680836244755</v>
       </c>
       <c r="AC3" t="n">
-        <v>881.8444938483037</v>
+        <v>1045.384279241795</v>
       </c>
       <c r="AD3" t="n">
-        <v>712509.0174261131</v>
+        <v>844645.2076656121</v>
       </c>
       <c r="AE3" t="n">
-        <v>974886.2713217797</v>
+        <v>1155680.836244754</v>
       </c>
       <c r="AF3" t="n">
         <v>7.670081832568836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.24166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>881844.4938483037</v>
+        <v>1045384.279241795</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1122.352004250211</v>
+        <v>1294.239582107925</v>
       </c>
       <c r="AB2" t="n">
-        <v>1535.651526890996</v>
+        <v>1770.835694060664</v>
       </c>
       <c r="AC2" t="n">
-        <v>1389.091100464973</v>
+        <v>1601.82962080302</v>
       </c>
       <c r="AD2" t="n">
-        <v>1122352.004250211</v>
+        <v>1294239.582107925</v>
       </c>
       <c r="AE2" t="n">
-        <v>1535651.526890996</v>
+        <v>1770835.694060664</v>
       </c>
       <c r="AF2" t="n">
         <v>5.50868512882829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1389091.100464973</v>
+        <v>1601829.62080302</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>701.5587556795494</v>
+        <v>835.2938615484792</v>
       </c>
       <c r="AB3" t="n">
-        <v>959.9036401086778</v>
+        <v>1142.885911935019</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.2917839299254</v>
+        <v>1033.810484550392</v>
       </c>
       <c r="AD3" t="n">
-        <v>701558.7556795494</v>
+        <v>835293.8615484792</v>
       </c>
       <c r="AE3" t="n">
-        <v>959903.6401086778</v>
+        <v>1142885.911935019</v>
       </c>
       <c r="AF3" t="n">
         <v>7.220399909637216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>868291.7839299254</v>
+        <v>1033810.484550392</v>
       </c>
     </row>
   </sheetData>
